--- a/template/amazon_nl_compare.xlsx
+++ b/template/amazon_nl_compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31620" windowHeight="15280"/>
+    <workbookView windowWidth="30440" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="LWT for Amzon" sheetId="1" r:id="rId1"/>
@@ -3100,7 +3100,7 @@
   <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
